--- a/Jogos_da_Semana_FlashScore_2025-05-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-18.xlsx
@@ -4674,89 +4674,89 @@
         <v>2</v>
       </c>
       <c r="H35" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="I35" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J35" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="K35" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="L35" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="M35" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="N35" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="O35" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="P35" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R35" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="S35" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T35" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="U35" t="n">
         <v>7.5</v>
       </c>
       <c r="V35" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W35" t="n">
         <v>17</v>
       </c>
       <c r="X35" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y35" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z35" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="AA35" t="n">
         <v>6</v>
       </c>
       <c r="AB35" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AC35" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AD35" t="inlineStr"/>
       <c r="AE35" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF35" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG35" t="n">
         <v>21</v>
       </c>
-      <c r="AG35" t="n">
-        <v>19</v>
-      </c>
       <c r="AH35" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI35" t="n">
         <v>51</v>
       </c>
       <c r="AJ35" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36">
@@ -7081,31 +7081,31 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="H56" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I56" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="J56" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K56" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L56" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M56" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N56" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="O56" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="P56" t="n">
         <v>1.25</v>
@@ -7114,34 +7114,34 @@
         <v>3.75</v>
       </c>
       <c r="R56" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S56" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T56" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U56" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V56" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W56" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X56" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z56" t="n">
         <v>19</v>
       </c>
-      <c r="Y56" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z56" t="n">
-        <v>17</v>
-      </c>
       <c r="AA56" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB56" t="n">
         <v>10</v>
@@ -7159,16 +7159,16 @@
         <v>15</v>
       </c>
       <c r="AG56" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH56" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI56" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ56" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57">
@@ -7923,10 +7923,10 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="H63" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I63" t="n">
         <v>2.1</v>
@@ -7944,10 +7944,10 @@
         <v>3</v>
       </c>
       <c r="N63" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O63" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P63" t="n">
         <v>1.5</v>
@@ -7956,16 +7956,16 @@
         <v>2.5</v>
       </c>
       <c r="R63" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S63" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T63" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U63" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V63" t="n">
         <v>13</v>
@@ -8045,37 +8045,37 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="H64" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="I64" t="n">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="J64" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K64" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="L64" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="M64" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N64" t="n">
-        <v>2.1</v>
+        <v>2.35</v>
       </c>
       <c r="O64" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="P64" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R64" t="n">
         <v>2.1</v>
@@ -8084,52 +8084,52 @@
         <v>1.67</v>
       </c>
       <c r="T64" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U64" t="n">
         <v>7</v>
       </c>
       <c r="V64" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W64" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="X64" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y64" t="n">
         <v>34</v>
       </c>
       <c r="Z64" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA64" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AB64" t="n">
         <v>21</v>
       </c>
       <c r="AC64" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD64" t="n">
         <v>501</v>
       </c>
       <c r="AE64" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AF64" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AG64" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH64" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI64" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ64" t="n">
         <v>51</v>
@@ -8167,13 +8167,13 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H65" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I65" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="J65" t="n">
         <v>1.1</v>
@@ -8194,52 +8194,52 @@
         <v>1.5</v>
       </c>
       <c r="P65" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R65" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="S65" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="T65" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U65" t="n">
         <v>10</v>
       </c>
       <c r="V65" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W65" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X65" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y65" t="n">
         <v>41</v>
       </c>
       <c r="Z65" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA65" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB65" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC65" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD65" t="n">
         <v>501</v>
       </c>
       <c r="AE65" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AF65" t="n">
         <v>13</v>
@@ -8304,16 +8304,16 @@
         <v>10</v>
       </c>
       <c r="L66" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M66" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N66" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="O66" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="P66" t="n">
         <v>1.4</v>
@@ -8322,16 +8322,16 @@
         <v>2.75</v>
       </c>
       <c r="R66" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S66" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T66" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U66" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V66" t="n">
         <v>8.5</v>
@@ -8346,19 +8346,19 @@
         <v>29</v>
       </c>
       <c r="Z66" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA66" t="n">
         <v>7.5</v>
       </c>
       <c r="AB66" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC66" t="n">
         <v>67</v>
       </c>
       <c r="AD66" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AE66" t="n">
         <v>13</v>
@@ -8373,7 +8373,7 @@
         <v>67</v>
       </c>
       <c r="AI66" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ66" t="n">
         <v>51</v>
@@ -8775,19 +8775,19 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H70" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I70" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="J70" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K70" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L70" t="n">
         <v>1.22</v>
@@ -8796,16 +8796,16 @@
         <v>4</v>
       </c>
       <c r="N70" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O70" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="P70" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q70" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R70" t="n">
         <v>2.1</v>
@@ -8814,7 +8814,7 @@
         <v>1.67</v>
       </c>
       <c r="T70" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U70" t="n">
         <v>6</v>
@@ -8832,10 +8832,10 @@
         <v>29</v>
       </c>
       <c r="Z70" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA70" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB70" t="n">
         <v>23</v>
@@ -8856,7 +8856,7 @@
         <v>26</v>
       </c>
       <c r="AH70" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AI70" t="n">
         <v>67</v>
@@ -9019,13 +9019,13 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H72" t="n">
         <v>3.1</v>
       </c>
       <c r="I72" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J72" t="n">
         <v>1.1</v>
@@ -9040,10 +9040,10 @@
         <v>2.5</v>
       </c>
       <c r="N72" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O72" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P72" t="n">
         <v>1.53</v>
@@ -9061,10 +9061,10 @@
         <v>6.5</v>
       </c>
       <c r="U72" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V72" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W72" t="n">
         <v>23</v>
@@ -9076,7 +9076,7 @@
         <v>41</v>
       </c>
       <c r="Z72" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA72" t="n">
         <v>6</v>
@@ -9091,7 +9091,7 @@
         <v>1250</v>
       </c>
       <c r="AE72" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF72" t="n">
         <v>13</v>
@@ -9100,7 +9100,7 @@
         <v>12</v>
       </c>
       <c r="AH72" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI72" t="n">
         <v>29</v>
@@ -9174,10 +9174,10 @@
         <v>2.5</v>
       </c>
       <c r="R73" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S73" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T73" t="n">
         <v>9.5</v>
@@ -9189,7 +9189,7 @@
         <v>15</v>
       </c>
       <c r="W73" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="X73" t="n">
         <v>41</v>
@@ -9219,7 +9219,7 @@
         <v>8</v>
       </c>
       <c r="AG73" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH73" t="n">
         <v>15</v>
@@ -9263,19 +9263,19 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H74" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I74" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="J74" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K74" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L74" t="n">
         <v>1.5</v>
@@ -9284,10 +9284,10 @@
         <v>2.5</v>
       </c>
       <c r="N74" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O74" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P74" t="n">
         <v>1.53</v>
@@ -9305,13 +9305,13 @@
         <v>6</v>
       </c>
       <c r="U74" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V74" t="n">
         <v>10</v>
       </c>
       <c r="W74" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X74" t="n">
         <v>21</v>
@@ -9341,7 +9341,7 @@
         <v>17</v>
       </c>
       <c r="AG74" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH74" t="n">
         <v>41</v>
@@ -9350,7 +9350,7 @@
         <v>34</v>
       </c>
       <c r="AJ74" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="75">
@@ -11215,13 +11215,13 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H90" t="n">
         <v>3.75</v>
       </c>
       <c r="I90" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J90" t="n">
         <v>1.07</v>
@@ -11230,10 +11230,10 @@
         <v>9</v>
       </c>
       <c r="L90" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M90" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N90" t="n">
         <v>2.2</v>
@@ -11248,37 +11248,37 @@
         <v>2.63</v>
       </c>
       <c r="R90" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S90" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T90" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U90" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V90" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W90" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X90" t="n">
         <v>15</v>
       </c>
       <c r="Y90" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z90" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA90" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB90" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC90" t="n">
         <v>67</v>
@@ -11293,7 +11293,7 @@
         <v>23</v>
       </c>
       <c r="AG90" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH90" t="n">
         <v>51</v>
@@ -11302,7 +11302,7 @@
         <v>41</v>
       </c>
       <c r="AJ90" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="91">
@@ -15524,22 +15524,22 @@
         <v>3.6</v>
       </c>
       <c r="J126" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K126" t="n">
         <v>10</v>
       </c>
       <c r="L126" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M126" t="n">
         <v>3.25</v>
       </c>
       <c r="N126" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O126" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P126" t="n">
         <v>1.44</v>
@@ -15637,13 +15637,13 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="H127" t="n">
         <v>3.5</v>
       </c>
       <c r="I127" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="J127" t="n">
         <v>1.08</v>
@@ -15676,7 +15676,7 @@
         <v>1.62</v>
       </c>
       <c r="T127" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U127" t="n">
         <v>21</v>
@@ -15710,13 +15710,13 @@
         <v>5.5</v>
       </c>
       <c r="AF127" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG127" t="n">
         <v>9</v>
       </c>
       <c r="AH127" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI127" t="n">
         <v>17</v>
@@ -15757,13 +15757,13 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I128" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="J128" t="n">
         <v>1.1</v>
@@ -15796,19 +15796,19 @@
         <v>1.67</v>
       </c>
       <c r="T128" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U128" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="V128" t="n">
         <v>10</v>
       </c>
       <c r="W128" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X128" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y128" t="n">
         <v>41</v>
@@ -15827,19 +15827,19 @@
       </c>
       <c r="AD128" t="inlineStr"/>
       <c r="AE128" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF128" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG128" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH128" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AI128" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ128" t="n">
         <v>41</v>
@@ -15999,94 +15999,94 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="H130" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I130" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="J130" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K130" t="n">
+        <v>15</v>
+      </c>
+      <c r="L130" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M130" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="N130" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="O130" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="P130" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R130" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S130" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T130" t="n">
+        <v>26</v>
+      </c>
+      <c r="U130" t="n">
+        <v>51</v>
+      </c>
+      <c r="V130" t="n">
+        <v>34</v>
+      </c>
+      <c r="W130" t="n">
+        <v>151</v>
+      </c>
+      <c r="X130" t="n">
+        <v>101</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z130" t="n">
         <v>13</v>
       </c>
-      <c r="L130" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M130" t="n">
-        <v>4</v>
-      </c>
-      <c r="N130" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="O130" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="P130" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q130" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R130" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S130" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T130" t="n">
-        <v>21</v>
-      </c>
-      <c r="U130" t="n">
-        <v>41</v>
-      </c>
-      <c r="V130" t="n">
-        <v>26</v>
-      </c>
-      <c r="W130" t="n">
-        <v>126</v>
-      </c>
-      <c r="X130" t="n">
-        <v>67</v>
-      </c>
-      <c r="Y130" t="n">
-        <v>67</v>
-      </c>
-      <c r="Z130" t="n">
+      <c r="AA130" t="n">
         <v>12</v>
       </c>
-      <c r="AA130" t="n">
-        <v>10</v>
-      </c>
       <c r="AB130" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AC130" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AD130" t="n">
         <v>351</v>
       </c>
       <c r="AE130" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF130" t="n">
         <v>6</v>
       </c>
       <c r="AG130" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH130" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI130" t="n">
         <v>12</v>
       </c>
       <c r="AJ130" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="131">
@@ -16121,10 +16121,10 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H131" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I131" t="n">
         <v>7.5</v>
@@ -16136,22 +16136,22 @@
         <v>13</v>
       </c>
       <c r="L131" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M131" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N131" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O131" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P131" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q131" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R131" t="n">
         <v>1.83</v>
@@ -16160,7 +16160,7 @@
         <v>1.83</v>
       </c>
       <c r="T131" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U131" t="n">
         <v>7</v>
@@ -16172,13 +16172,13 @@
         <v>9.5</v>
       </c>
       <c r="X131" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y131" t="n">
         <v>26</v>
       </c>
       <c r="Z131" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA131" t="n">
         <v>8.5</v>
@@ -16190,10 +16190,10 @@
         <v>51</v>
       </c>
       <c r="AD131" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE131" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF131" t="n">
         <v>41</v>
@@ -24528,16 +24528,16 @@
         <v>1.75</v>
       </c>
       <c r="H204" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I204" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J204" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K204" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L204" t="n">
         <v>1.14</v>
@@ -24546,10 +24546,10 @@
         <v>5.5</v>
       </c>
       <c r="N204" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="O204" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="P204" t="n">
         <v>1.25</v>
@@ -24558,13 +24558,13 @@
         <v>3.75</v>
       </c>
       <c r="R204" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S204" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T204" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U204" t="n">
         <v>11</v>
@@ -24576,19 +24576,19 @@
         <v>15</v>
       </c>
       <c r="X204" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y204" t="n">
         <v>19</v>
       </c>
       <c r="Z204" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA204" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB204" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC204" t="n">
         <v>34</v>
@@ -24600,7 +24600,7 @@
         <v>17</v>
       </c>
       <c r="AF204" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG204" t="n">
         <v>13</v>
@@ -24647,13 +24647,13 @@
         </is>
       </c>
       <c r="G205" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H205" t="n">
         <v>3.5</v>
       </c>
-      <c r="H205" t="n">
-        <v>3.6</v>
-      </c>
       <c r="I205" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J205" t="n">
         <v>1.04</v>
@@ -24674,16 +24674,16 @@
         <v>2.1</v>
       </c>
       <c r="P205" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q205" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R205" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S205" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T205" t="n">
         <v>13</v>
@@ -24692,7 +24692,7 @@
         <v>21</v>
       </c>
       <c r="V205" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W205" t="n">
         <v>41</v>
@@ -24704,7 +24704,7 @@
         <v>29</v>
       </c>
       <c r="Z205" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA205" t="n">
         <v>7</v>
@@ -24716,25 +24716,25 @@
         <v>41</v>
       </c>
       <c r="AD205" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE205" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF205" t="n">
         <v>10</v>
       </c>
-      <c r="AF205" t="n">
-        <v>11</v>
-      </c>
       <c r="AG205" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH205" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI205" t="n">
         <v>15</v>
       </c>
       <c r="AJ205" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="206">
@@ -24769,94 +24769,94 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="H206" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="I206" t="n">
-        <v>2.57</v>
+        <v>2.67</v>
       </c>
       <c r="J206" t="n">
         <v>1.06</v>
       </c>
       <c r="K206" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="L206" t="n">
         <v>1.29</v>
       </c>
       <c r="M206" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="N206" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="O206" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P206" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="Q206" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="R206" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S206" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="T206" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="U206" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="V206" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="W206" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="X206" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="Y206" t="n">
         <v>28</v>
       </c>
       <c r="Z206" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="AA206" t="n">
-        <v>6.6</v>
+        <v>6.1</v>
       </c>
       <c r="AB206" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC206" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AD206" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AE206" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AF206" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG206" t="n">
         <v>9.75</v>
       </c>
       <c r="AH206" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI206" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ206" t="n">
         <v>28</v>
-      </c>
-      <c r="AI206" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ206" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="207">
@@ -24891,13 +24891,13 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H207" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I207" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="J207" t="n">
         <v>1.05</v>
@@ -24915,34 +24915,34 @@
         <v>1.83</v>
       </c>
       <c r="O207" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="P207" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="Q207" t="n">
-        <v>2.85</v>
+        <v>2.77</v>
       </c>
       <c r="R207" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S207" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T207" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="U207" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="V207" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W207" t="n">
+        <v>18</v>
+      </c>
+      <c r="X207" t="n">
         <v>16</v>
-      </c>
-      <c r="X207" t="n">
-        <v>15</v>
       </c>
       <c r="Y207" t="n">
         <v>26</v>
@@ -24951,34 +24951,34 @@
         <v>7.7</v>
       </c>
       <c r="AA207" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AB207" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC207" t="n">
         <v>65</v>
       </c>
       <c r="AD207" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AE207" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AF207" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AG207" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH207" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI207" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AJ207" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="208">

--- a/Jogos_da_Semana_FlashScore_2025-05-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-18.xlsx
@@ -4680,10 +4680,10 @@
         <v>5.25</v>
       </c>
       <c r="J35" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="K35" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="L35" t="n">
         <v>1.83</v>
@@ -7081,13 +7081,13 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="H56" t="n">
         <v>3.5</v>
       </c>
       <c r="I56" t="n">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="J56" t="n">
         <v>1.02</v>
@@ -7102,16 +7102,16 @@
         <v>6</v>
       </c>
       <c r="N56" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="O56" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="P56" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q56" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R56" t="n">
         <v>1.4</v>
@@ -7120,22 +7120,22 @@
         <v>2.75</v>
       </c>
       <c r="T56" t="n">
+        <v>15</v>
+      </c>
+      <c r="U56" t="n">
         <v>17</v>
       </c>
-      <c r="U56" t="n">
-        <v>19</v>
-      </c>
       <c r="V56" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="W56" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="X56" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y56" t="n">
         <v>21</v>
-      </c>
-      <c r="Y56" t="n">
-        <v>23</v>
       </c>
       <c r="Z56" t="n">
         <v>19</v>
@@ -7147,28 +7147,28 @@
         <v>10</v>
       </c>
       <c r="AC56" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD56" t="n">
         <v>81</v>
       </c>
       <c r="AE56" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF56" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG56" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AH56" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI56" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ56" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57">
@@ -8167,19 +8167,19 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="H65" t="n">
         <v>3.1</v>
       </c>
       <c r="I65" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="J65" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K65" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L65" t="n">
         <v>1.5</v>
@@ -8209,22 +8209,22 @@
         <v>6.5</v>
       </c>
       <c r="U65" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V65" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W65" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X65" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y65" t="n">
         <v>41</v>
       </c>
       <c r="Z65" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA65" t="n">
         <v>6</v>
@@ -8239,7 +8239,7 @@
         <v>501</v>
       </c>
       <c r="AE65" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF65" t="n">
         <v>13</v>
@@ -8248,7 +8248,7 @@
         <v>12</v>
       </c>
       <c r="AH65" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI65" t="n">
         <v>29</v>
@@ -8289,31 +8289,31 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="H66" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="I66" t="n">
-        <v>6.25</v>
+        <v>5.25</v>
       </c>
       <c r="J66" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K66" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L66" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="M66" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="N66" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="O66" t="n">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="P66" t="n">
         <v>1.4</v>
@@ -8328,28 +8328,28 @@
         <v>1.75</v>
       </c>
       <c r="T66" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U66" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V66" t="n">
         <v>8.5</v>
       </c>
       <c r="W66" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="X66" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y66" t="n">
         <v>29</v>
       </c>
       <c r="Z66" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA66" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB66" t="n">
         <v>19</v>
@@ -8361,16 +8361,16 @@
         <v>401</v>
       </c>
       <c r="AE66" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF66" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG66" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH66" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI66" t="n">
         <v>41</v>
@@ -8781,7 +8781,7 @@
         <v>5</v>
       </c>
       <c r="I70" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="J70" t="n">
         <v>1.04</v>
@@ -8817,7 +8817,7 @@
         <v>7</v>
       </c>
       <c r="U70" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V70" t="n">
         <v>9</v>
@@ -8832,7 +8832,7 @@
         <v>29</v>
       </c>
       <c r="Z70" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA70" t="n">
         <v>10</v>
@@ -8853,16 +8853,16 @@
         <v>41</v>
       </c>
       <c r="AG70" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH70" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AI70" t="n">
         <v>67</v>
       </c>
       <c r="AJ70" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="71">
@@ -9019,91 +9019,91 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="H72" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I72" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="J72" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="K72" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L72" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="M72" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="N72" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="O72" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="P72" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="R72" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="S72" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="T72" t="n">
         <v>6.5</v>
       </c>
       <c r="U72" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V72" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W72" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="X72" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Y72" t="n">
         <v>41</v>
       </c>
       <c r="Z72" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA72" t="n">
         <v>6</v>
       </c>
       <c r="AB72" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC72" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD72" t="n">
         <v>1250</v>
       </c>
       <c r="AE72" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF72" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG72" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH72" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI72" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ72" t="n">
         <v>41</v>
@@ -9144,7 +9144,7 @@
         <v>4.2</v>
       </c>
       <c r="H73" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I73" t="n">
         <v>1.9</v>
@@ -9156,16 +9156,16 @@
         <v>8</v>
       </c>
       <c r="L73" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M73" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N73" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="O73" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P73" t="n">
         <v>1.5</v>
@@ -9198,7 +9198,7 @@
         <v>51</v>
       </c>
       <c r="Z73" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA73" t="n">
         <v>6.5</v>
@@ -9213,7 +9213,7 @@
         <v>1250</v>
       </c>
       <c r="AE73" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AF73" t="n">
         <v>8</v>
@@ -15515,37 +15515,37 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="H126" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="I126" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="J126" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K126" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L126" t="n">
         <v>1.3</v>
       </c>
       <c r="M126" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N126" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O126" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="P126" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q126" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R126" t="n">
         <v>1.91</v>
@@ -15557,22 +15557,22 @@
         <v>7</v>
       </c>
       <c r="U126" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="V126" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W126" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X126" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y126" t="n">
         <v>29</v>
       </c>
       <c r="Z126" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA126" t="n">
         <v>6.5</v>
@@ -15587,10 +15587,10 @@
         <v>301</v>
       </c>
       <c r="AE126" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF126" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AG126" t="n">
         <v>13</v>
@@ -15599,7 +15599,7 @@
         <v>41</v>
       </c>
       <c r="AI126" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ126" t="n">
         <v>41</v>
@@ -15757,13 +15757,13 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="H128" t="n">
         <v>3.1</v>
       </c>
       <c r="I128" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="J128" t="n">
         <v>1.1</v>
@@ -15802,13 +15802,13 @@
         <v>11</v>
       </c>
       <c r="V128" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W128" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X128" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y128" t="n">
         <v>41</v>
@@ -15830,16 +15830,16 @@
         <v>7</v>
       </c>
       <c r="AF128" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG128" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH128" t="n">
         <v>29</v>
       </c>
       <c r="AI128" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ128" t="n">
         <v>41</v>
@@ -16127,43 +16127,43 @@
         <v>4.2</v>
       </c>
       <c r="I131" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J131" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K131" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L131" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M131" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N131" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O131" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="P131" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R131" t="n">
+        <v>2</v>
+      </c>
+      <c r="S131" t="n">
         <v>1.73</v>
       </c>
-      <c r="O131" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="P131" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q131" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R131" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S131" t="n">
-        <v>1.83</v>
-      </c>
       <c r="T131" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="U131" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V131" t="n">
         <v>8.5</v>
@@ -16175,13 +16175,13 @@
         <v>12</v>
       </c>
       <c r="Y131" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z131" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA131" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB131" t="n">
         <v>19</v>
@@ -16190,7 +16190,7 @@
         <v>51</v>
       </c>
       <c r="AD131" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE131" t="n">
         <v>19</v>
@@ -16199,7 +16199,7 @@
         <v>41</v>
       </c>
       <c r="AG131" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH131" t="n">
         <v>81</v>
@@ -24647,10 +24647,10 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H205" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I205" t="n">
         <v>1.95</v>
@@ -24662,10 +24662,10 @@
         <v>13</v>
       </c>
       <c r="L205" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M205" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N205" t="n">
         <v>1.7</v>
@@ -24689,10 +24689,10 @@
         <v>13</v>
       </c>
       <c r="U205" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V205" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W205" t="n">
         <v>41</v>
@@ -24710,7 +24710,7 @@
         <v>7</v>
       </c>
       <c r="AB205" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC205" t="n">
         <v>41</v>
@@ -24722,19 +24722,19 @@
         <v>9</v>
       </c>
       <c r="AF205" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG205" t="n">
         <v>8.5</v>
       </c>
       <c r="AH205" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI205" t="n">
         <v>15</v>
       </c>
       <c r="AJ205" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="206">
